--- a/data/echoMRI/Kotz05062025.xlsx
+++ b/data/echoMRI/Kotz05062025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GOPAL DRIVE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A8FCB2-2CE6-614C-80FB-03FBD578BF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA4D021-EBC6-0847-B9B7-F150FCFE5F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="780" windowWidth="25100" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,6 +506,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
